--- a/Data/Test/dataset21/input_data.xlsx
+++ b/Data/Test/dataset21/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset21\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295EE9B8-3568-43F5-ADC3-5CCB78F78C96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309FF71A-6F82-4738-BD2C-C2AE54ED7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -571,17 +571,17 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="8.796875" style="1"/>
-    <col min="5" max="8" width="8.796875" style="2"/>
-    <col min="9" max="10" width="8.796875" style="3"/>
+    <col min="4" max="4" width="8.75" style="1"/>
+    <col min="5" max="8" width="8.75" style="2"/>
+    <col min="9" max="10" width="8.75" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -677,7 +677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -741,15 +741,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="D6" s="1">
         <v>24</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -805,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -965,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -997,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1161,7 +1161,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1225,7 +1225,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1815,9 +1815,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1957,7 +1957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2055,9 +2055,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2176,7 +2176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2244,7 +2244,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2312,7 +2312,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2343,9 +2343,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2436,9 +2436,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2454,7 +2454,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2470,7 +2470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>60</v>
       </c>

--- a/Data/Test/dataset21/input_data.xlsx
+++ b/Data/Test/dataset21/input_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\experiment\AI_SH_graph_rev_rev1\Data\Test\dataset21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sueng\PycharmProjects\AI_SH_graph_rev_rev1\Data\Test\dataset23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{309FF71A-6F82-4738-BD2C-C2AE54ED7593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48191565-2F79-4426-A2A1-7ADB97A11A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ship" sheetId="1" r:id="rId1"/>
@@ -571,17 +571,17 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="8.75" style="1"/>
-    <col min="5" max="8" width="8.75" style="2"/>
-    <col min="9" max="10" width="8.75" style="3"/>
+    <col min="4" max="6" width="8.796875" style="1"/>
+    <col min="7" max="8" width="8.796875" style="2"/>
+    <col min="9" max="10" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -594,10 +594,10 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="2">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2">
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
         <v>5</v>
       </c>
       <c r="G1" s="2">
@@ -613,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -626,10 +626,10 @@
       <c r="D2" s="1">
         <v>25</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>25</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="1">
         <v>25</v>
       </c>
       <c r="G2" s="2">
@@ -645,7 +645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -658,10 +658,10 @@
       <c r="D3" s="1">
         <v>90</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>90</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>90</v>
       </c>
       <c r="G3" s="2">
@@ -677,7 +677,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -690,10 +690,10 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
         <v>3</v>
       </c>
       <c r="G4" s="2">
@@ -709,7 +709,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -722,10 +722,10 @@
       <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
         <v>10</v>
       </c>
       <c r="G5" s="2">
@@ -741,23 +741,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1">
         <v>24</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>24</v>
       </c>
       <c r="G6" s="2">
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -786,10 +786,10 @@
       <c r="D7" s="1">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>16</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>16</v>
       </c>
       <c r="G7" s="2">
@@ -805,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -818,10 +818,10 @@
       <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
-        <v>20</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E8" s="1">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1">
         <v>20</v>
       </c>
       <c r="G8" s="2">
@@ -837,7 +837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -850,10 +850,10 @@
       <c r="D9" s="1">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
         <v>3</v>
       </c>
       <c r="G9" s="2">
@@ -869,7 +869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -882,11 +882,11 @@
       <c r="D10" s="1">
         <v>12</v>
       </c>
-      <c r="E10" s="2">
-        <v>20</v>
-      </c>
-      <c r="F10" s="2">
-        <v>20</v>
+      <c r="E10" s="1">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1">
+        <v>12</v>
       </c>
       <c r="G10" s="2">
         <v>20</v>
@@ -901,7 +901,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -914,10 +914,10 @@
       <c r="D11" s="1">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>1</v>
       </c>
       <c r="G11" s="2">
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -946,10 +946,10 @@
       <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2">
+      <c r="E12" s="1">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1">
         <v>20</v>
       </c>
       <c r="G12" s="2">
@@ -965,7 +965,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -978,11 +978,11 @@
       <c r="D13" s="1">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>2</v>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -997,7 +997,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1010,11 +1010,11 @@
       <c r="D14" s="1">
         <v>12</v>
       </c>
-      <c r="E14" s="2">
-        <v>4</v>
-      </c>
-      <c r="F14" s="2">
-        <v>4</v>
+      <c r="E14" s="1">
+        <v>12</v>
+      </c>
+      <c r="F14" s="1">
+        <v>12</v>
       </c>
       <c r="G14" s="2">
         <v>4</v>
@@ -1029,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1042,10 +1042,10 @@
       <c r="D15" s="1">
         <v>8</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>8</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>8</v>
       </c>
       <c r="G15" s="2">
@@ -1061,7 +1061,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1074,10 +1074,10 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="E16" s="1">
+        <v>2</v>
+      </c>
+      <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="G16" s="2">
@@ -1093,7 +1093,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1106,10 +1106,10 @@
       <c r="D17" s="1">
         <v>20</v>
       </c>
-      <c r="E17" s="2">
-        <v>20</v>
-      </c>
-      <c r="F17" s="2">
+      <c r="E17" s="1">
+        <v>20</v>
+      </c>
+      <c r="F17" s="1">
         <v>20</v>
       </c>
       <c r="G17" s="2">
@@ -1125,7 +1125,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1138,12 +1138,10 @@
       <c r="D18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="E18" s="2">
-        <f>-0.1</f>
+      <c r="E18" s="1">
         <v>-0.1</v>
       </c>
-      <c r="F18" s="2">
-        <f>-0.1</f>
+      <c r="F18" s="1">
         <v>-0.1</v>
       </c>
       <c r="G18" s="2">
@@ -1161,7 +1159,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1174,10 +1172,10 @@
       <c r="D19" s="1">
         <v>10</v>
       </c>
-      <c r="E19" s="2">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+      <c r="F19" s="1">
         <v>10</v>
       </c>
       <c r="G19" s="2">
@@ -1193,7 +1191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1206,10 +1204,10 @@
       <c r="D20" s="1">
         <v>0.9</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>0.9</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0.9</v>
       </c>
       <c r="G20" s="2">
@@ -1225,7 +1223,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1238,10 +1236,10 @@
       <c r="D21" s="1">
         <v>100</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>100</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="1">
         <v>100</v>
       </c>
       <c r="G21" s="2">
@@ -1257,7 +1255,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1270,10 +1268,10 @@
       <c r="D22" s="1">
         <v>25</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>25</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="1">
         <v>25</v>
       </c>
       <c r="G22" s="2">
@@ -1289,7 +1287,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1302,10 +1300,10 @@
       <c r="D23" s="1">
         <v>20</v>
       </c>
-      <c r="E23" s="2">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2">
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
         <v>20</v>
       </c>
       <c r="G23" s="2">
@@ -1321,7 +1319,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1334,10 +1332,10 @@
       <c r="D24" s="1">
         <v>60</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="1">
         <v>60</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="1">
         <v>60</v>
       </c>
       <c r="G24" s="2">
@@ -1353,7 +1351,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1366,10 +1364,10 @@
       <c r="D25" s="1">
         <v>6000000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="1">
         <v>6000000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="1">
         <v>6000000</v>
       </c>
       <c r="G25" s="2">
@@ -1385,7 +1383,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1398,10 +1396,10 @@
       <c r="D26" s="1">
         <v>9300</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="1">
         <v>9300</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="1">
         <v>9300</v>
       </c>
       <c r="G26" s="2">
@@ -1417,7 +1415,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1430,10 +1428,10 @@
       <c r="D27" s="1">
         <v>7.5</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="1">
         <v>7.5</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="1">
         <v>7.5</v>
       </c>
       <c r="G27" s="2">
@@ -1449,7 +1447,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1462,10 +1460,10 @@
       <c r="D28" s="1">
         <v>4</v>
       </c>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2">
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
         <v>4</v>
       </c>
       <c r="G28" s="2">
@@ -1481,7 +1479,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1494,10 +1492,10 @@
       <c r="D29" s="1">
         <v>4</v>
       </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2">
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
         <v>4</v>
       </c>
       <c r="G29" s="2">
@@ -1513,7 +1511,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1526,10 +1524,10 @@
       <c r="D30" s="1">
         <v>4200</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="1">
         <v>4200</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="1">
         <v>4200</v>
       </c>
       <c r="G30" s="2">
@@ -1545,7 +1543,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1558,10 +1556,10 @@
       <c r="D31" s="1">
         <v>1100</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="1">
         <v>1100</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="1">
         <v>1100</v>
       </c>
       <c r="G31" s="2">
@@ -1577,7 +1575,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1590,10 +1588,10 @@
       <c r="D32" s="1">
         <v>10</v>
       </c>
-      <c r="E32" s="2">
-        <v>10</v>
-      </c>
-      <c r="F32" s="2">
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
         <v>10</v>
       </c>
       <c r="G32" s="2">
@@ -1609,7 +1607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1622,10 +1620,10 @@
       <c r="D33" s="1">
         <v>11</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>11</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>11</v>
       </c>
       <c r="G33" s="2">
@@ -1641,7 +1639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1654,10 +1652,10 @@
       <c r="D34" s="1">
         <v>6</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="1">
         <v>6</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>6</v>
       </c>
       <c r="G34" s="2">
@@ -1673,7 +1671,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1686,10 +1684,10 @@
       <c r="D35" s="1">
         <v>7</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="1">
         <v>7</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>7</v>
       </c>
       <c r="G35" s="2">
@@ -1705,7 +1703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1718,10 +1716,10 @@
       <c r="D36" s="1">
         <v>2</v>
       </c>
-      <c r="E36" s="2">
-        <v>2</v>
-      </c>
-      <c r="F36" s="2">
+      <c r="E36" s="1">
+        <v>2</v>
+      </c>
+      <c r="F36" s="1">
         <v>2</v>
       </c>
       <c r="G36" s="2">
@@ -1737,7 +1735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1750,10 +1748,10 @@
       <c r="D37" s="1">
         <v>3</v>
       </c>
-      <c r="E37" s="2">
-        <v>3</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="1">
+        <v>3</v>
+      </c>
+      <c r="F37" s="1">
         <v>3</v>
       </c>
       <c r="G37" s="2">
@@ -1769,7 +1767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1782,10 +1780,10 @@
       <c r="D38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="1" t="s">
         <v>39</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -1815,9 +1813,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1831,7 +1829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1845,7 +1843,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1859,7 +1857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>43</v>
       </c>
@@ -1873,7 +1871,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>44</v>
       </c>
@@ -1887,7 +1885,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>45</v>
       </c>
@@ -1901,7 +1899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -1915,7 +1913,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1929,7 +1927,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1943,7 +1941,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -1957,7 +1955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1971,7 +1969,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1985,7 +1983,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1999,7 +1997,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2013,7 +2011,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2027,7 +2025,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2055,9 +2053,9 @@
       <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -2074,7 +2072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2091,7 +2089,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -2108,7 +2106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2125,7 +2123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -2142,7 +2140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -2159,7 +2157,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -2176,7 +2174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2193,7 +2191,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>45</v>
       </c>
@@ -2210,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -2227,7 +2225,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -2244,7 +2242,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -2261,7 +2259,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -2278,7 +2276,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -2295,7 +2293,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -2312,7 +2310,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>50</v>
       </c>
@@ -2343,9 +2341,9 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2356,7 +2354,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2367,7 +2365,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2378,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -2389,7 +2387,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -2400,7 +2398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -2411,7 +2409,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -2436,9 +2434,9 @@
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2446,7 +2444,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -2454,7 +2452,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -2462,7 +2460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -2470,7 +2468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>60</v>
       </c>
